--- a/graph_generation/results/hermes_llama2/level_5/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_5/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>prompt</t>
   </si>
@@ -56,15 +56,15 @@
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
  F 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
+ G 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0
  L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
@@ -99,14 +99,14 @@
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
  K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0
  L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
@@ -116,7 +116,7 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -138,24 +138,22 @@
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
 Solution: A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+What is the shortest path from node A to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 1 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 1 0 1 0 0 0 0 0
+ G 0 0 1 0 0 1 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ K 0 0 0 0 0 0 0 1 0 1 0 0 0 1
+ L 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ M 0 0 0 0 0 0 0 0 0 1 0 1 0 1
+ N 0 0 0 0 0 0 0 0 0 0 1 0 1 0
     </t>
   </si>
   <si>
@@ -185,24 +183,24 @@
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
  H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
+ I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -224,24 +222,23 @@
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
 Solution: A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ E 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0
+ F 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
+ K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
@@ -270,19 +267,19 @@
 What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
  G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
  H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
@@ -313,25 +310,25 @@
 What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0
  H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
  J 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
  L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -353,24 +350,22 @@
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
 Solution: A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+What is the shortest path from node A to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 1 0 0 0 0 0 0 0
+ D 0 1 1 0 1 0 0 1 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 1 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ G 0 0 1 0 0 0 0 1 0 0 1 0 0 0
+ H 0 0 0 1 0 0 1 0 0 0 0 1 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 1 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ K 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ M 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
@@ -403,16 +398,16 @@
  C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
+ F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0
  L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
@@ -442,52 +437,64 @@
 What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
  L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
+    <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
     <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; K -&gt; N</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O</t>
   </si>
   <si>
     <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
+    <t>A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
     <t>The shortest path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P.</t>
   </si>
   <si>
+    <t>The shortest path from node A to node N is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; N.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node O is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O.</t>
+  </si>
+  <si>
     <t>Wrong</t>
   </si>
   <si>
     <t>Correct</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -518,36 +525,37 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
 Solution: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node X? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -578,37 +586,36 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
 Solution: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -639,33 +646,32 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
 Solution: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+What is the shortest path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -702,35 +708,35 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
  O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
  P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
  U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
  V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -761,33 +767,31 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
 Solution: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+What is the shortest path from node A to node W? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
@@ -825,24 +829,24 @@
 What is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
  K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ L 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
  U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
  V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
@@ -852,7 +856,7 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -883,33 +887,32 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
 Solution: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+What is the shortest path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -948,18 +951,18 @@
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  I 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
  O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
  P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
  Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0
@@ -967,8 +970,8 @@
  S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
  U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
  X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
     </t>
@@ -1009,27 +1012,27 @@
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  G 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
  O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
  P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
  U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
     </t>
@@ -1071,62 +1074,68 @@
  A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  G 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
  M 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
  N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
  O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
  P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0
  R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
  U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
  V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
  W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; G -&gt; H -&gt; M -&gt; N -&gt; O -&gt; S -&gt; X</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y</t>
+    <t>A -&gt; B -&gt; G -&gt; L -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; I -&gt; N -&gt; S -&gt; X</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; G -&gt; L -&gt; M -&gt; Q -&gt; R -&gt; S -&gt; X</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; H -&gt; M -&gt; N -&gt; S -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; S -&gt; W</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; L -&gt; M -&gt; R -&gt; S -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; O -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X</t>
   </si>
   <si>
     <t>A -&gt; B -&gt; C -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; K -&gt; L -&gt; M -&gt; N -&gt; S -&gt; X -&gt; Y</t>
-  </si>
-  <si>
     <t>A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y</t>
   </si>
   <si>
-    <t>A -&gt; F -&gt; G -&gt; H -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y</t>
+    <t>A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; R -&gt; S -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node Y is A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y.</t>
   </si>
   <si>
     <t>The shortest path from node A to node X is A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y.</t>
   </si>
   <si>
-    <t>The shortest path from node A to node Y is A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y.</t>
+    <t>The shortest path from node A to node W is A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; W.</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -1160,32 +1169,32 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node K to node S? Return the sequence of nodes in response.
+What is the shortest path from node S to node E? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- B 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0
- E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- K 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
- N 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1
- P 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- Q 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
- R 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- S 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- U 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- W 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0
+ D 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0
+ E 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ H 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ K 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
+ M 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
+ N 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1
+ O 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ P 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ R 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ S 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
+ V 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ W 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ X 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
     </t>
   </si>
   <si>
@@ -1220,37 +1229,37 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node M to node B? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- E 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- F 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
- I 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- L 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- O 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- R 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- T 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- V 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
- X 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node S to node E? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
+ B 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1
+ D 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0
+ H 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ L 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ O 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ P 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ Q 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ R 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
+ V 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0
+ Y 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node E to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1281,36 +1290,37 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node O to node S? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
- F 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1
- H 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0
- M 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- O 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
- V 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- W 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- X 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node E to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ D 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
+ F 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
+ L 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ O 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ S 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0
+ T 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ X 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node E to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1341,35 +1351,34 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node K to node W? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0
- D 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
- E 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- G 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- J 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
- L 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
- O 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- Q 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- S 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
- U 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- V 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node M to node E? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1
+ B 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ D 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ L 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1
+ M 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ N 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0
+ P 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0
+ R 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0
+ U 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node E to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1400,37 +1409,34 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0
- C 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- H 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
- M 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- N 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0
- R 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
- U 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
- V 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0
- X 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- Y 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node M to node R? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ B 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ C 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ D 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ J 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ N 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+ Q 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ R 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node E to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1461,32 +1467,33 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node S to node V? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1
- B 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1
- D 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
- I 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- K 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- N 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
- O 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- P 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- Q 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- T 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- X 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+What is the shortest path from node U to node S? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ B 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ C 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ E 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ L 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1
+ N 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
+ O 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ R 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ T 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
+ U 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ V 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0
+ W 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
@@ -1521,33 +1528,33 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node U to node F? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
- B 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- D 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- F 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- G 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- K 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- L 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0
- M 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- N 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
- P 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- S 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
- T 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- X 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- Y 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the shortest path from node D to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ B 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ C 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ E 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ G 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
+ M 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
+ O 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ R 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ U 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ V 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ W 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ X 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1582,32 +1589,32 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node Q to node D? Return the sequence of nodes in response.
+What is the shortest path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0
- C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- G 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- J 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1
- M 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0
- O 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- P 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0
- R 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- T 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- W 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ A 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0
+ G 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0
+ J 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ N 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
+ O 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0
+ P 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0
+ Q 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0
+ S 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
@@ -1642,37 +1649,37 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node U to node X? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0
- B 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0
- C 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0
- F 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- K 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- L 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
- N 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0
- Q 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- R 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- T 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
- U 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
- W 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+What is the shortest path from node T to node R? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0
+ E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
+ F 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ H 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ J 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
+ L 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ M 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0
+ P 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Q 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0
+ W 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0
+ Y 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node E to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1703,93 +1710,94 @@
  Y 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
 Solution: E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O
  Given these examples, answer the following quesiton.
-What is the shortest path from node P to node K? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- C 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- E 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
- F 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- M 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- N 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- O 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- P 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- Q 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- R 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
- T 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0
- V 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0
- X 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>K -&gt; D -&gt; V -&gt; O -&gt; X -&gt; R -&gt; H -&gt; P -&gt; S</t>
-  </si>
-  <si>
-    <t>M -&gt; G -&gt; K -&gt; I -&gt; E -&gt; S -&gt; U -&gt; Q -&gt; B</t>
-  </si>
-  <si>
-    <t>O -&gt; D -&gt; C -&gt; T -&gt; N -&gt; G -&gt; P -&gt; L -&gt; S</t>
-  </si>
-  <si>
-    <t>K -&gt; Q -&gt; T -&gt; P -&gt; N -&gt; L -&gt; C -&gt; S -&gt; W</t>
-  </si>
-  <si>
-    <t>A -&gt; H -&gt; N -&gt; D -&gt; I -&gt; X -&gt; V -&gt; W -&gt; T</t>
-  </si>
-  <si>
-    <t>S -&gt; M -&gt; G -&gt; W -&gt; P -&gt; T -&gt; A -&gt; Q -&gt; V</t>
-  </si>
-  <si>
-    <t>U -&gt; L -&gt; V -&gt; T -&gt; H -&gt; I -&gt; W -&gt; J -&gt; F</t>
-  </si>
-  <si>
-    <t>Q -&gt; M -&gt; J -&gt; B -&gt; P -&gt; A -&gt; G -&gt; E -&gt; D</t>
-  </si>
-  <si>
-    <t>U -&gt; E -&gt; N -&gt; M -&gt; D -&gt; W -&gt; P -&gt; T -&gt; X</t>
-  </si>
-  <si>
-    <t>P -&gt; A -&gt; V -&gt; D -&gt; N -&gt; S -&gt; X -&gt; E -&gt; K</t>
-  </si>
-  <si>
-    <t>The shortest path from node K to node S is K -&gt; L -&gt; O -&gt; P -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O.</t>
-  </si>
-  <si>
-    <t>The shortest path from node M to node B is M -&gt; L -&gt; O -&gt; P -&gt; B.</t>
-  </si>
-  <si>
-    <t>The shortest path from node O to node S is O -&gt; L -&gt; S.</t>
-  </si>
-  <si>
-    <t>The shortest path from node K to node W is K -&gt; L -&gt; O -&gt; P -&gt; W.</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node T is A -&gt; D -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O -&gt; P -&gt; R -&gt; S -&gt; T. The sequence of nodes is A -&gt; D -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O -&gt; P -&gt; R -&gt; S -&gt; T.</t>
-  </si>
-  <si>
-    <t>The shortest path from node S to node V is S -&gt; T -&gt; V.</t>
-  </si>
-  <si>
-    <t>The shortest path from node U to node F is U -&gt; T -&gt; R -&gt; S -&gt; O -&gt; F.</t>
-  </si>
-  <si>
-    <t>The shortest path from node Q to node D is Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O -&gt; D.</t>
-  </si>
-  <si>
-    <t>The shortest path from node U to node X is U -&gt; T -&gt; S -&gt; Y -&gt; X.</t>
-  </si>
-  <si>
-    <t>The shortest path from node P to node K is P -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O -&gt; K.</t>
+What is the shortest path from node H to node S? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ B 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ G 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ N 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ P 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0
+ R 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0
+ V 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
+ W 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>S -&gt; C -&gt; L -&gt; N -&gt; T -&gt; D -&gt; K -&gt; I -&gt; E</t>
+  </si>
+  <si>
+    <t>S -&gt; W -&gt; G -&gt; L -&gt; F -&gt; O -&gt; Q -&gt; M -&gt; E</t>
+  </si>
+  <si>
+    <t>E -&gt; X -&gt; K -&gt; L -&gt; A -&gt; S -&gt; D -&gt; I -&gt; N</t>
+  </si>
+  <si>
+    <t>M -&gt; Q -&gt; O -&gt; R -&gt; T -&gt; J -&gt; S -&gt; H -&gt; E</t>
+  </si>
+  <si>
+    <t>M -&gt; Q -&gt; A -&gt; E -&gt; C -&gt; V -&gt; P -&gt; O -&gt; R</t>
+  </si>
+  <si>
+    <t>U -&gt; Y -&gt; M -&gt; W -&gt; A -&gt; R -&gt; T -&gt; X -&gt; S</t>
+  </si>
+  <si>
+    <t>D -&gt; G -&gt; B -&gt; E -&gt; C -&gt; Q -&gt; S -&gt; N -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; N -&gt; S -&gt; O -&gt; C -&gt; P -&gt; L -&gt; J -&gt; H</t>
+  </si>
+  <si>
+    <t>T -&gt; S -&gt; X -&gt; L -&gt; C -&gt; K -&gt; Y -&gt; E -&gt; R</t>
+  </si>
+  <si>
+    <t>H -&gt; E -&gt; N -&gt; X -&gt; Q -&gt; G -&gt; F -&gt; J -&gt; S</t>
+  </si>
+  <si>
+    <t>The shortest path from node S to node E is S -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O -&gt; E.</t>
+  </si>
+  <si>
+    <t>The shortest path from node S to node E is S -&gt; Y -&gt; E.</t>
+  </si>
+  <si>
+    <t>The shortest path from node E to node N is E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O.</t>
+  </si>
+  <si>
+    <t>The shortest path from node M to node E is M -&gt; L -&gt; P -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O.</t>
+  </si>
+  <si>
+    <t>The shortest path from node M to node R is M -&gt; L -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O -&gt; R.</t>
+  </si>
+  <si>
+    <t>The shortest path from node U to node S is U -&gt; T -&gt; S.</t>
+  </si>
+  <si>
+    <t>The shortest path from node D to node J is D -&gt; E -&gt; X -&gt; Q -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y.</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node H is A -&gt; D -&gt; H.</t>
+  </si>
+  <si>
+    <t>The shortest path from node T to node R is T -&gt; S -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O.</t>
+  </si>
+  <si>
+    <t>The shortest path from node H to node S is H -&gt; I -&gt; Y -&gt; V -&gt; N -&gt; S -&gt; O.</t>
   </si>
 </sst>
 </file>
@@ -2175,10 +2183,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2189,10 +2197,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2203,10 +2211,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2217,10 +2225,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2228,13 +2236,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2242,13 +2250,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2256,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2270,13 +2278,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2284,13 +2292,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2298,13 +2306,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2336,142 +2344,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2503,142 +2511,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
